--- a/biology/Médecine/Michel_Bourgat/Michel_Bourgat.xlsx
+++ b/biology/Médecine/Michel_Bourgat/Michel_Bourgat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le docteur Michel Bourgat est médecin généraliste à Marseille spécialisé dans la médecine du sport[1], spécialiste également des toxicomanies et addictions[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le docteur Michel Bourgat est médecin généraliste à Marseille spécialisé dans la médecine du sport, spécialiste également des toxicomanies et addictions. 
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Président-fondateur de la "Fédération pour l’aide et le soutien aux victimes de la violence"[3], il est également engagé en politique à Marseille au sein de l'UMP.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Président-fondateur de la "Fédération pour l’aide et le soutien aux victimes de la violence", il est également engagé en politique à Marseille au sein de l'UMP.
 Conseiller d'arrondissement RPR entre 1983 et 1989, il délaisse la politique.
-Après le meurtre de son fils de 14 ans, Nicolas, en 1996 dans un quartier populaire de Marseille[4], Michel Bourgat veut écarter toute récupération politique et décide de s'engager à nouveau pour lutter contre la violence.
+Après le meurtre de son fils de 14 ans, Nicolas, en 1996 dans un quartier populaire de Marseille, Michel Bourgat veut écarter toute récupération politique et décide de s'engager à nouveau pour lutter contre la violence.
 Il crée alors la « Fédération pour l’aide et le soutien aux victimes de la violence ».
 Il devient conseiller municipal en 2001 sur la liste de Jean-Claude Gaudin et est réélu en 2008.
-Adjoint au maire à "la lutte contre l'exclusion" - "Intégration unité d'hébergement d'urgence samu social" entre 2008 et 2014, il choisit de ne pas se représenter à un nouveau mandat[5].
+Adjoint au maire à "la lutte contre l'exclusion" - "Intégration unité d'hébergement d'urgence samu social" entre 2008 et 2014, il choisit de ne pas se représenter à un nouveau mandat.
 </t>
         </is>
       </c>
